--- a/excel/excelToFile/excelDataToJson.xlsx
+++ b/excel/excelToFile/excelDataToJson.xlsx
@@ -240,9 +240,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>outputJsonFolder</t>
-  </si>
-  <si>
     <t>承载输出json文件的文件夹</t>
     <rPh sb="0" eb="1">
       <t>duan'kou</t>
@@ -261,6 +258,10 @@
   </si>
   <si>
     <t>inputExcelPaths</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputJsonFolder</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5700,9 +5701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5957,10 +5956,10 @@
     <row r="22" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A22" s="24"/>
       <c r="B22" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="25" t="str">
         <f ca="1">C4&amp;"/../../test/res/dataExcel/ExcelData.xlsx"</f>
@@ -5972,10 +5971,10 @@
     <row r="23" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="A23" s="24"/>
       <c r="B23" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D23" s="25" t="str">
         <f ca="1">C4&amp;"/../../temp/excelData"</f>
